--- a/2021-1月_Character_Mask_pre-order_(Doraemon)_O.xlsx
+++ b/2021-1月_Character_Mask_pre-order_(Doraemon)_O.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATMX\Documents\imageFromExcel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
-    <sheet name="Items" sheetId="1" r:id="rId1"/>
-    <sheet name="Images" sheetId="2" r:id="rId2"/>
+    <sheet name="Images" sheetId="2" r:id="rId1"/>
+    <sheet name="Items" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Items!$A$6:$AB$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Images!$A$1:$L$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Items!$A$6:$AB$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Images!$A$1:$L$4</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -582,28 +587,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="18">
-    <numFmt numFmtId="176" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;NT$&quot;* #,##0.00_-;\-&quot;NT$&quot;* #,##0.00_-;_-&quot;NT$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;NT$&quot;* #,##0_-;\-&quot;NT$&quot;* #,##0_-;_-&quot;NT$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="[$$-404]#,##0.0"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="183" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="184" formatCode="[$¥-411]#,##0;[$¥-411]#,##0"/>
-    <numFmt numFmtId="185" formatCode="[$$-404]#,##0.00_);[Red]\([$$-404]#,##0.00\)"/>
-    <numFmt numFmtId="186" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="187" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="188" formatCode="0_ "/>
-    <numFmt numFmtId="189" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
-    <numFmt numFmtId="190" formatCode="mmm\-yyyy"/>
-    <numFmt numFmtId="191" formatCode="\¥#,##0_);[Red]\(\¥#,##0\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="15">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="[$$-404]#,##0.0"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="[$¥-411]#,##0;[$¥-411]#,##0"/>
+    <numFmt numFmtId="172" formatCode="[$$-404]#,##0.00_);[Red]\([$$-404]#,##0.00\)"/>
+    <numFmt numFmtId="173" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="174" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="175" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
+    <numFmt numFmtId="177" formatCode="mmm\-yyyy"/>
+    <numFmt numFmtId="178" formatCode="\¥#,##0_);[Red]\(\¥#,##0\)"/>
   </numFmts>
-  <fonts count="71">
+  <fonts count="51">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -728,13 +730,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="9"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -743,13 +738,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
@@ -769,92 +757,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -871,70 +782,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color indexed="56"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1067,7 +918,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="59">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1112,73 +963,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,60 +987,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1262,25 +999,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1292,67 +1011,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="30"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1417,7 +1082,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1542,45 +1207,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -1592,65 +1218,6 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1736,335 +1303,191 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="166">
+  <cellStyleXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="38" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="38" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="171" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="51" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="38" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="51" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="51" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="38" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="35" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="51" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="51" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="51" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="61" fillId="4" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="61" fillId="4" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="66" fillId="6" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -2073,136 +1496,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="106" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="106" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="58" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="106" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="106" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="106" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="106" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="58" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="15" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="106" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="185" fontId="3" fillId="0" borderId="3" xfId="106" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="3" xfId="106" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="3" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="3" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="106" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="1" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="106" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="106" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="58" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="106" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="106" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="106" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="58" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="10" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="10" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="47" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="47" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="8" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="8" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="8" fillId="0" borderId="2" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="8" fillId="0" borderId="2" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="8" fillId="4" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="8" fillId="4" borderId="5" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="8" fillId="4" borderId="6" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="5" fillId="0" borderId="3" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="5" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="5" fillId="0" borderId="3" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2217,296 +1619,466 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="8" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="8" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="9" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="16" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="16" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="8" fillId="6" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="8" fillId="4" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="12" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="8" fillId="6" borderId="5" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="8" fillId="4" borderId="5" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="5" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="12" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="16" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="190" fontId="12" fillId="0" borderId="3" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="175" fontId="18" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="16" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="8" fillId="4" borderId="3" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="8" fillId="4" borderId="5" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="8" fillId="4" borderId="6" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="8" fillId="6" borderId="3" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="8" fillId="6" borderId="5" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="8" fillId="4" borderId="3" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="8" fillId="4" borderId="5" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="3" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="5" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="191" fontId="8" fillId="0" borderId="0" xfId="110" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="18" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="10" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="18" fillId="6" borderId="8" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="18" fillId="6" borderId="9" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="18" fillId="6" borderId="8" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="18" fillId="6" borderId="9" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="166">
+  <cellStyles count="118">
+    <cellStyle name="20% - 輔色1 2" xfId="25"/>
+    <cellStyle name="20% - 輔色2 2" xfId="27"/>
+    <cellStyle name="20% - 輔色3 2" xfId="7"/>
+    <cellStyle name="20% - 輔色4 2" xfId="20"/>
+    <cellStyle name="20% - 輔色5 2" xfId="30"/>
+    <cellStyle name="20% - 輔色6 2" xfId="35"/>
+    <cellStyle name="40% - 輔色1 2" xfId="6"/>
+    <cellStyle name="40% - 輔色2 2" xfId="19"/>
+    <cellStyle name="40% - 輔色3 2" xfId="29"/>
+    <cellStyle name="40% - 輔色4 2" xfId="32"/>
+    <cellStyle name="40% - 輔色5 2" xfId="13"/>
+    <cellStyle name="40% - 輔色6 2" xfId="23"/>
+    <cellStyle name="60% - 輔色1 2" xfId="28"/>
+    <cellStyle name="60% - 輔色2 2" xfId="31"/>
+    <cellStyle name="60% - 輔色3 2" xfId="12"/>
+    <cellStyle name="60% - 輔色4 2" xfId="36"/>
+    <cellStyle name="60% - 輔色5 2" xfId="37"/>
+    <cellStyle name="60% - 輔色6 2" xfId="38"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0] 2" xfId="39"/>
+    <cellStyle name="Comma 2" xfId="40"/>
+    <cellStyle name="Currency [0] 2" xfId="41"/>
+    <cellStyle name="Excel Built-in Normal" xfId="42"/>
+    <cellStyle name="Excel Built-in Normal 1" xfId="5"/>
+    <cellStyle name="j" xfId="43"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="合計 2 2 2" xfId="10"/>
-    <cellStyle name="Check Cell" xfId="11" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="12" builtinId="17"/>
-    <cellStyle name="Note" xfId="13" builtinId="10"/>
-    <cellStyle name="合計 2 3 2" xfId="14"/>
-    <cellStyle name="40% - Accent3" xfId="15" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="16" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="17" builtinId="35"/>
-    <cellStyle name="Title" xfId="18" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="19" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="20" builtinId="16"/>
-    <cellStyle name="計算方式 2 2" xfId="21"/>
-    <cellStyle name="Excel Built-in Normal 1" xfId="22"/>
-    <cellStyle name="40% - 輔色1 2" xfId="23"/>
-    <cellStyle name="20% - 輔色3 2" xfId="24"/>
-    <cellStyle name="Heading 3" xfId="25" builtinId="18"/>
-    <cellStyle name="標準_2004 Item plan 2" xfId="26"/>
-    <cellStyle name="Heading 4" xfId="27" builtinId="19"/>
-    <cellStyle name="Input" xfId="28" builtinId="20"/>
-    <cellStyle name="千分位[0] 3" xfId="29"/>
-    <cellStyle name="60% - Accent3" xfId="30" builtinId="40"/>
-    <cellStyle name="Good" xfId="31" builtinId="26"/>
-    <cellStyle name="計算方式 2 2 2" xfId="32"/>
-    <cellStyle name="Output" xfId="33" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="34" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="35" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="36" builtinId="24"/>
-    <cellStyle name="備註 2 2" xfId="37"/>
-    <cellStyle name="Total" xfId="38" builtinId="25"/>
-    <cellStyle name="60% - 輔色3 2" xfId="39"/>
-    <cellStyle name="40% - 輔色5 2" xfId="40"/>
-    <cellStyle name="Bad" xfId="41" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="42" builtinId="28"/>
-    <cellStyle name="一般 3" xfId="43"/>
-    <cellStyle name="Accent1" xfId="44" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="45" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="46" builtinId="32"/>
-    <cellStyle name="一般 4" xfId="47"/>
-    <cellStyle name="Accent2" xfId="48" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="49" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="50" builtinId="50"/>
-    <cellStyle name="千分位[0] 2" xfId="51"/>
-    <cellStyle name="60% - Accent2" xfId="52" builtinId="36"/>
-    <cellStyle name="一般 5" xfId="53"/>
-    <cellStyle name="Accent3" xfId="54" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="55" builtinId="38"/>
-    <cellStyle name="一般 6" xfId="56"/>
-    <cellStyle name="Accent4" xfId="57" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="58" builtinId="42"/>
-    <cellStyle name="40% - 輔色2 2" xfId="59"/>
-    <cellStyle name="20% - 輔色4 2" xfId="60"/>
-    <cellStyle name="40% - Accent4" xfId="61" builtinId="43"/>
-    <cellStyle name="一般 7" xfId="62"/>
-    <cellStyle name="Accent5" xfId="63" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="64" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="65" builtinId="48"/>
-    <cellStyle name="一般 8" xfId="66"/>
-    <cellStyle name="Accent6" xfId="67" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="68" builtinId="51"/>
-    <cellStyle name="40% - 輔色6 2" xfId="69"/>
-    <cellStyle name="スタイル 1" xfId="70"/>
-    <cellStyle name="60% - Accent6" xfId="71" builtinId="52"/>
-    <cellStyle name="20% - 輔色1 2" xfId="72"/>
-    <cellStyle name="一般 2" xfId="73"/>
-    <cellStyle name="20% - 輔色2 2" xfId="74"/>
-    <cellStyle name="60% - 輔色1 2" xfId="75"/>
-    <cellStyle name="40% - 輔色3 2" xfId="76"/>
-    <cellStyle name="20% - 輔色5 2" xfId="77"/>
-    <cellStyle name="60% - 輔色2 2" xfId="78"/>
-    <cellStyle name="40% - 輔色4 2" xfId="79"/>
-    <cellStyle name="輸入 2 3" xfId="80"/>
-    <cellStyle name="合計 2" xfId="81"/>
-    <cellStyle name="20% - 輔色6 2" xfId="82"/>
-    <cellStyle name="60% - 輔色4 2" xfId="83"/>
-    <cellStyle name="60% - 輔色5 2" xfId="84"/>
-    <cellStyle name="60% - 輔色6 2" xfId="85"/>
-    <cellStyle name="Comma [0] 2" xfId="86"/>
-    <cellStyle name="Comma [0]_ShinkengerOS -1 (3)" xfId="87"/>
-    <cellStyle name="Comma 2" xfId="88"/>
-    <cellStyle name="Currency [0] 2" xfId="89"/>
-    <cellStyle name="Excel Built-in Normal" xfId="90"/>
-    <cellStyle name="j" xfId="91"/>
-    <cellStyle name="Normal 2" xfId="92"/>
-    <cellStyle name="Normal 2 2" xfId="93"/>
-    <cellStyle name="Normal 2 3" xfId="94"/>
-    <cellStyle name="Normal 3" xfId="95"/>
-    <cellStyle name="Normal 4" xfId="96"/>
-    <cellStyle name="Normal 5" xfId="97"/>
-    <cellStyle name="Percent 2" xfId="98"/>
-    <cellStyle name="Style 1" xfId="99"/>
-    <cellStyle name="パーセント 2" xfId="100"/>
-    <cellStyle name="一般 16" xfId="101"/>
-    <cellStyle name="一般 9" xfId="102"/>
-    <cellStyle name="一般 9 2" xfId="103"/>
-    <cellStyle name="一般_2007-03 HCP " xfId="104"/>
-    <cellStyle name="計算方式 2 4" xfId="105"/>
-    <cellStyle name="一般_Photo Form" xfId="106"/>
-    <cellStyle name="千分位 2" xfId="107"/>
-    <cellStyle name="千分位 3" xfId="108"/>
-    <cellStyle name="千分位 4" xfId="109"/>
-    <cellStyle name="標準_KRW_OS_20110523" xfId="110"/>
-    <cellStyle name="中等 2" xfId="111"/>
-    <cellStyle name="月" xfId="112"/>
-    <cellStyle name="月 2" xfId="113"/>
-    <cellStyle name="月 2 2" xfId="114"/>
-    <cellStyle name="月 2 3" xfId="115"/>
-    <cellStyle name="月 3" xfId="116"/>
-    <cellStyle name="說明文字 2" xfId="117"/>
-    <cellStyle name="月 4" xfId="118"/>
-    <cellStyle name="列レベル_1 2" xfId="119"/>
-    <cellStyle name="輸入 2 3 2" xfId="120"/>
-    <cellStyle name="合計 2 2" xfId="121"/>
-    <cellStyle name="貨幣 2" xfId="122"/>
-    <cellStyle name="合計 2 3" xfId="123"/>
-    <cellStyle name="貨幣 3" xfId="124"/>
-    <cellStyle name="合計 2 4" xfId="125"/>
-    <cellStyle name="輸入 2" xfId="126"/>
-    <cellStyle name="好 2" xfId="127"/>
-    <cellStyle name="百分比 2" xfId="128"/>
-    <cellStyle name="計算方式 2" xfId="129"/>
-    <cellStyle name="計算方式 2 3" xfId="130"/>
-    <cellStyle name="計算方式 2 3 2" xfId="131"/>
-    <cellStyle name="桁区切り 2" xfId="132"/>
-    <cellStyle name="貨幣 4" xfId="133"/>
-    <cellStyle name="貨幣 5" xfId="134"/>
-    <cellStyle name="通貨 2" xfId="135"/>
-    <cellStyle name="連結的儲存格 2" xfId="136"/>
-    <cellStyle name="備註 2" xfId="137"/>
-    <cellStyle name="輔色1 2" xfId="138"/>
-    <cellStyle name="輔色2 2" xfId="139"/>
-    <cellStyle name="輔色3 2" xfId="140"/>
-    <cellStyle name="輔色4 2" xfId="141"/>
-    <cellStyle name="輔色5 2" xfId="142"/>
-    <cellStyle name="輔色6 2" xfId="143"/>
-    <cellStyle name="標準 2" xfId="144"/>
-    <cellStyle name="標準 2 2" xfId="145"/>
-    <cellStyle name="標準 2 3" xfId="146"/>
-    <cellStyle name="標準 3" xfId="147"/>
-    <cellStyle name="標準 4" xfId="148"/>
-    <cellStyle name="標準 5" xfId="149"/>
-    <cellStyle name="標準 58" xfId="150"/>
-    <cellStyle name="標準_030930 Y2004 LAUNCHING ITEM PLAN HATTORI" xfId="151"/>
-    <cellStyle name="標題 1 2" xfId="152"/>
-    <cellStyle name="標題 2 2" xfId="153"/>
-    <cellStyle name="標題 3 2" xfId="154"/>
-    <cellStyle name="標題 4 2" xfId="155"/>
-    <cellStyle name="標題 5" xfId="156"/>
-    <cellStyle name="樣式 1" xfId="157"/>
-    <cellStyle name="輸入 2 2" xfId="158"/>
-    <cellStyle name="輸入 2 2 2" xfId="159"/>
-    <cellStyle name="輸入 2 4" xfId="160"/>
-    <cellStyle name="輸出 2" xfId="161"/>
-    <cellStyle name="輸出 2 2" xfId="162"/>
-    <cellStyle name="檢查儲存格 2" xfId="163"/>
-    <cellStyle name="壞 2" xfId="164"/>
-    <cellStyle name="警告文字 2" xfId="165"/>
+    <cellStyle name="Normal 2" xfId="44"/>
+    <cellStyle name="Normal 2 2" xfId="45"/>
+    <cellStyle name="Normal 2 3" xfId="46"/>
+    <cellStyle name="Normal 3" xfId="47"/>
+    <cellStyle name="Normal 4" xfId="48"/>
+    <cellStyle name="Normal 5" xfId="49"/>
+    <cellStyle name="Percent 2" xfId="50"/>
+    <cellStyle name="Style 1" xfId="51"/>
+    <cellStyle name="スタイル 1" xfId="24"/>
+    <cellStyle name="パーセント 2" xfId="52"/>
+    <cellStyle name="一般 16" xfId="53"/>
+    <cellStyle name="一般 2" xfId="26"/>
+    <cellStyle name="一般 3" xfId="14"/>
+    <cellStyle name="一般 4" xfId="15"/>
+    <cellStyle name="一般 5" xfId="17"/>
+    <cellStyle name="一般 6" xfId="18"/>
+    <cellStyle name="一般 7" xfId="21"/>
+    <cellStyle name="一般 8" xfId="22"/>
+    <cellStyle name="一般 9" xfId="54"/>
+    <cellStyle name="一般 9 2" xfId="55"/>
+    <cellStyle name="一般_2007-03 HCP " xfId="56"/>
+    <cellStyle name="一般_Photo Form" xfId="58"/>
+    <cellStyle name="中等 2" xfId="63"/>
+    <cellStyle name="備註 2" xfId="89"/>
+    <cellStyle name="備註 2 2" xfId="11"/>
+    <cellStyle name="列レベル_1 2" xfId="71"/>
+    <cellStyle name="千分位 2" xfId="59"/>
+    <cellStyle name="千分位 3" xfId="60"/>
+    <cellStyle name="千分位 4" xfId="61"/>
+    <cellStyle name="千分位[0] 2" xfId="16"/>
+    <cellStyle name="千分位[0] 3" xfId="9"/>
+    <cellStyle name="合計 2" xfId="34"/>
+    <cellStyle name="合計 2 2" xfId="73"/>
+    <cellStyle name="合計 2 2 2" xfId="2"/>
+    <cellStyle name="合計 2 3" xfId="75"/>
+    <cellStyle name="合計 2 3 2" xfId="3"/>
+    <cellStyle name="合計 2 4" xfId="77"/>
+    <cellStyle name="壞 2" xfId="116"/>
+    <cellStyle name="好 2" xfId="79"/>
+    <cellStyle name="月" xfId="64"/>
+    <cellStyle name="月 2" xfId="65"/>
+    <cellStyle name="月 2 2" xfId="66"/>
+    <cellStyle name="月 2 3" xfId="67"/>
+    <cellStyle name="月 3" xfId="68"/>
+    <cellStyle name="月 4" xfId="70"/>
+    <cellStyle name="桁区切り 2" xfId="84"/>
+    <cellStyle name="標準 2" xfId="96"/>
+    <cellStyle name="標準 2 2" xfId="97"/>
+    <cellStyle name="標準 2 3" xfId="98"/>
+    <cellStyle name="標準 3" xfId="99"/>
+    <cellStyle name="標準 4" xfId="100"/>
+    <cellStyle name="標準 5" xfId="101"/>
+    <cellStyle name="標準 58" xfId="102"/>
+    <cellStyle name="標準_030930 Y2004 LAUNCHING ITEM PLAN HATTORI" xfId="103"/>
+    <cellStyle name="標準_2004 Item plan 2" xfId="8"/>
+    <cellStyle name="標準_KRW_OS_20110523" xfId="62"/>
+    <cellStyle name="標題 1 2" xfId="104"/>
+    <cellStyle name="標題 2 2" xfId="105"/>
+    <cellStyle name="標題 3 2" xfId="106"/>
+    <cellStyle name="標題 4 2" xfId="107"/>
+    <cellStyle name="標題 5" xfId="108"/>
+    <cellStyle name="樣式 1" xfId="109"/>
+    <cellStyle name="檢查儲存格 2" xfId="115"/>
+    <cellStyle name="百分比 2" xfId="80"/>
+    <cellStyle name="計算方式 2" xfId="81"/>
+    <cellStyle name="計算方式 2 2" xfId="4"/>
+    <cellStyle name="計算方式 2 2 2" xfId="10"/>
+    <cellStyle name="計算方式 2 3" xfId="82"/>
+    <cellStyle name="計算方式 2 3 2" xfId="83"/>
+    <cellStyle name="計算方式 2 4" xfId="57"/>
+    <cellStyle name="說明文字 2" xfId="69"/>
+    <cellStyle name="警告文字 2" xfId="117"/>
+    <cellStyle name="貨幣 2" xfId="74"/>
+    <cellStyle name="貨幣 3" xfId="76"/>
+    <cellStyle name="貨幣 4" xfId="85"/>
+    <cellStyle name="貨幣 5" xfId="86"/>
+    <cellStyle name="輔色1 2" xfId="90"/>
+    <cellStyle name="輔色2 2" xfId="91"/>
+    <cellStyle name="輔色3 2" xfId="92"/>
+    <cellStyle name="輔色4 2" xfId="93"/>
+    <cellStyle name="輔色5 2" xfId="94"/>
+    <cellStyle name="輔色6 2" xfId="95"/>
+    <cellStyle name="輸入 2" xfId="78"/>
+    <cellStyle name="輸入 2 2" xfId="110"/>
+    <cellStyle name="輸入 2 2 2" xfId="111"/>
+    <cellStyle name="輸入 2 3" xfId="33"/>
+    <cellStyle name="輸入 2 3 2" xfId="72"/>
+    <cellStyle name="輸入 2 4" xfId="112"/>
+    <cellStyle name="輸出 2" xfId="113"/>
+    <cellStyle name="輸出 2 2" xfId="114"/>
+    <cellStyle name="通貨 2" xfId="87"/>
+    <cellStyle name="連結的儲存格 2" xfId="88"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2518,19 +2090,141 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FF0000"/>
+      <color rgb="FFFF0000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4380976</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4947639</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="圖片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10744200" y="1137920"/>
+          <a:ext cx="4190365" cy="4780915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4380976</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4971452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="圖片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19926300" y="1162050"/>
+          <a:ext cx="4190365" cy="4780915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4395265</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4980982</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="圖片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1585595" y="1209675"/>
+          <a:ext cx="4180840" cy="4742815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -2552,7 +2246,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2590,7 +2284,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2599,125 +2293,6 @@
         <a:xfrm>
           <a:off x="3126740" y="8087995"/>
           <a:ext cx="4177030" cy="4711065"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>4380976</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>4947639</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="圖片 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10744200" y="1137920"/>
-          <a:ext cx="4190365" cy="4780915"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>4380976</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>4971452</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="圖片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19926300" y="1162050"/>
-          <a:ext cx="4190365" cy="4780915"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>214313</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4395265</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>4980982</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="圖片 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1585595" y="1209675"/>
-          <a:ext cx="4180840" cy="4742815"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3010,19 +2585,150 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="3" max="3" width="102.5" customWidth="1"/>
+    <col min="6" max="6" width="102.5" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="102.5" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="102.5" customWidth="1"/>
+    <col min="16" max="16" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="26.25">
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4" t="str">
+        <f>VLOOKUP(A1,Items!$B$7:$J$553,3,FALSE)</f>
+        <v>210395    00</v>
+      </c>
+      <c r="D1" s="5">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4" t="str">
+        <f>VLOOKUP(D1,Items!$B$7:$J$553,3,FALSE)</f>
+        <v>210407    00</v>
+      </c>
+      <c r="G1" s="2">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4" t="str">
+        <f>VLOOKUP(G1,Items!$B$7:$J$553,3,FALSE)</f>
+        <v>210419    00</v>
+      </c>
+      <c r="J1" s="2">
+        <v>4</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="4" t="e">
+        <f>VLOOKUP(J1,Items!$B$7:$J$553,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="26.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="4" t="str">
+        <f>VLOOKUP(A1,Items!$B$7:$J$553,5,FALSE)</f>
+        <v>多啦a夢即棄式三層口罩 (S)</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="4" t="str">
+        <f>VLOOKUP(D1,Items!$B$7:$J$553,5,FALSE)</f>
+        <v>多啦a夢即棄式三層口罩 (M)</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="4" t="str">
+        <f>VLOOKUP(G1,Items!$B$7:$J$553,5,FALSE)</f>
+        <v>多啦a夢即棄式三層口罩 (L)</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="4" t="e">
+        <f>VLOOKUP(J1,Items!$B$7:$J$553,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="26.25">
+      <c r="A3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12">
+        <f>VLOOKUP(A1,Items!$B$7:$J$553,9,FALSE)</f>
+        <v>99.9</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12">
+        <f>VLOOKUP(D1,Items!$B$7:$J$553,9,FALSE)</f>
+        <v>99.9</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12">
+        <f>VLOOKUP(G1,Items!$B$7:$J$553,9,FALSE)</f>
+        <v>99.9</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="12" t="e">
+        <f>VLOOKUP(J1,Items!$B$7:$J$553,10,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="408" customHeight="1">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.70763888888888904" right="0.70763888888888904" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
+  <pageSetup paperSize="8" scale="10" orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AB43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
-      <selection/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="6" ySplit="6" topLeftCell="G25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="AG16" sqref="AG16"/>
@@ -3081,7 +2787,7 @@
       <c r="O1" s="28"/>
       <c r="P1" s="28"/>
       <c r="Q1" s="28"/>
-      <c r="R1" s="75"/>
+      <c r="R1" s="56"/>
       <c r="S1" s="28"/>
       <c r="T1" s="28"/>
       <c r="U1" s="28"/>
@@ -3108,8 +2814,8 @@
       <c r="F2" s="34"/>
       <c r="G2" s="25"/>
       <c r="H2" s="31"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="55"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
       <c r="K2" s="34"/>
       <c r="L2" s="34"/>
       <c r="M2" s="25"/>
@@ -3117,25 +2823,25 @@
         <v>3</v>
       </c>
       <c r="O2" s="25"/>
-      <c r="P2" s="56" t="s">
+      <c r="P2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="56" t="s">
+      <c r="Q2" s="57"/>
+      <c r="R2" s="49" t="s">
         <v>4</v>
       </c>
       <c r="S2" s="25"/>
       <c r="T2" s="25"/>
       <c r="U2" s="25"/>
       <c r="V2" s="25"/>
-      <c r="W2" s="77"/>
+      <c r="W2" s="58"/>
       <c r="X2" s="25"/>
       <c r="Y2" s="25"/>
       <c r="Z2" s="25"/>
-      <c r="AA2" s="85"/>
-      <c r="AB2" s="86"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:28">
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="61"/>
+    </row>
+    <row r="3" spans="1:28" ht="17.25">
       <c r="A3" s="25">
         <v>3</v>
       </c>
@@ -3150,8 +2856,8 @@
       <c r="F3" s="37"/>
       <c r="G3" s="25"/>
       <c r="H3" s="31"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
       <c r="K3" s="34"/>
       <c r="L3" s="34"/>
       <c r="M3" s="25"/>
@@ -3159,19 +2865,19 @@
         <v>7</v>
       </c>
       <c r="O3" s="25"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
       <c r="S3" s="25"/>
       <c r="T3" s="25"/>
       <c r="U3" s="25"/>
       <c r="V3" s="25"/>
-      <c r="W3" s="77"/>
+      <c r="W3" s="58"/>
       <c r="X3" s="25"/>
       <c r="Y3" s="25"/>
       <c r="Z3" s="25"/>
-      <c r="AA3" s="87"/>
-      <c r="AB3" s="86"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="61"/>
     </row>
     <row r="4" spans="1:28">
       <c r="A4" s="25">
@@ -3184,8 +2890,8 @@
       <c r="F4" s="34"/>
       <c r="G4" s="25"/>
       <c r="H4" s="31"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="54"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="47"/>
       <c r="K4" s="34"/>
       <c r="L4" s="34"/>
       <c r="M4" s="25"/>
@@ -3198,746 +2904,611 @@
       <c r="T4" s="25"/>
       <c r="U4" s="25"/>
       <c r="V4" s="25"/>
-      <c r="W4" s="77"/>
+      <c r="W4" s="58"/>
       <c r="X4" s="25"/>
       <c r="Y4" s="25"/>
       <c r="Z4" s="25"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="86"/>
-    </row>
-    <row r="5" ht="17.25" customHeight="1" spans="1:28">
+      <c r="AA4" s="63"/>
+      <c r="AB4" s="61"/>
+    </row>
+    <row r="5" spans="1:28" ht="17.25" customHeight="1">
       <c r="A5" s="25">
         <v>5</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="60" t="s">
+      <c r="J5" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="61" t="s">
+      <c r="L5" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="61" t="s">
+      <c r="M5" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="40" t="s">
+      <c r="N5" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="62" t="s">
+      <c r="O5" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="63" t="s">
+      <c r="P5" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="63" t="s">
+      <c r="Q5" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="78" t="s">
+      <c r="R5" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="S5" s="78" t="s">
+      <c r="S5" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="79" t="s">
+      <c r="T5" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="U5" s="38" t="s">
+      <c r="U5" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="V5" s="69" t="s">
+      <c r="V5" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="W5" s="80" t="s">
+      <c r="W5" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="X5" s="79" t="s">
+      <c r="X5" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="Y5" s="79"/>
-      <c r="Z5" s="79"/>
-      <c r="AA5" s="63" t="s">
+      <c r="Y5" s="85"/>
+      <c r="Z5" s="85"/>
+      <c r="AA5" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="AB5" s="89" t="s">
+      <c r="AB5" s="90" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" ht="47.25" customHeight="1" spans="1:28">
+    <row r="6" spans="1:28" ht="47.25" customHeight="1">
       <c r="A6" s="25">
         <v>6</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="81"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="82"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="81"/>
-      <c r="Y6" s="81"/>
-      <c r="Z6" s="81"/>
-      <c r="AA6" s="69"/>
-      <c r="AB6" s="90"/>
-    </row>
-    <row r="7" s="21" customFormat="1" ht="25.5" customHeight="1" spans="1:28">
+      <c r="B6" s="67"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="87"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="86"/>
+      <c r="Y6" s="86"/>
+      <c r="Z6" s="86"/>
+      <c r="AA6" s="83"/>
+      <c r="AB6" s="91"/>
+    </row>
+    <row r="7" spans="1:28" s="21" customFormat="1" ht="25.5" customHeight="1">
       <c r="A7" s="25">
         <v>7</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="38">
         <v>1</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="49" t="s">
+      <c r="H7" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="70">
-        <v>66.6</v>
-      </c>
-      <c r="J7" s="70">
+      <c r="I7" s="52">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="J7" s="52">
         <v>99.9</v>
       </c>
-      <c r="K7" s="71">
+      <c r="K7" s="53">
         <v>6</v>
       </c>
-      <c r="L7" s="72">
+      <c r="L7" s="54">
         <v>36</v>
       </c>
-      <c r="M7" s="92" t="s">
+      <c r="M7" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="74">
+      <c r="N7" s="55">
         <v>44197</v>
       </c>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45" t="s">
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="84" t="s">
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45" t="s">
+      <c r="W7" s="38"/>
+      <c r="X7" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="45"/>
-      <c r="AA7" s="45" t="s">
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="AB7" s="93" t="s">
+      <c r="AB7" s="65" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" s="21" customFormat="1" ht="25.5" customHeight="1" spans="1:28">
+    <row r="8" spans="1:28" s="21" customFormat="1" ht="25.5" customHeight="1">
       <c r="A8" s="25">
         <v>8</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="38">
         <v>2</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="49" t="s">
+      <c r="H8" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="70">
-        <v>66.6</v>
-      </c>
-      <c r="J8" s="70">
+      <c r="I8" s="52">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="J8" s="52">
         <v>99.9</v>
       </c>
-      <c r="K8" s="71">
+      <c r="K8" s="53">
         <v>6</v>
       </c>
-      <c r="L8" s="72">
+      <c r="L8" s="54">
         <v>36</v>
       </c>
-      <c r="M8" s="92" t="s">
+      <c r="M8" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="N8" s="74">
+      <c r="N8" s="55">
         <v>44197</v>
       </c>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45" t="s">
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="84" t="s">
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45">
+      <c r="W8" s="38"/>
+      <c r="X8" s="38">
         <v>100</v>
       </c>
-      <c r="Y8" s="45">
+      <c r="Y8" s="38">
         <v>190</v>
       </c>
-      <c r="Z8" s="45">
+      <c r="Z8" s="38">
         <v>91</v>
       </c>
-      <c r="AA8" s="45" t="s">
+      <c r="AA8" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="AB8" s="93" t="s">
+      <c r="AB8" s="65" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" s="21" customFormat="1" ht="25.5" customHeight="1" spans="1:28">
+    <row r="9" spans="1:28" s="21" customFormat="1" ht="25.5" customHeight="1">
       <c r="A9" s="25">
         <v>9</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="38">
         <v>3</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="48" t="s">
+      <c r="G9" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="49" t="s">
+      <c r="H9" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="70">
-        <v>66.6</v>
-      </c>
-      <c r="J9" s="70">
+      <c r="I9" s="52">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="J9" s="52">
         <v>99.9</v>
       </c>
-      <c r="K9" s="71">
+      <c r="K9" s="53">
         <v>6</v>
       </c>
-      <c r="L9" s="72">
+      <c r="L9" s="54">
         <v>36</v>
       </c>
-      <c r="M9" s="92" t="s">
+      <c r="M9" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="74">
+      <c r="N9" s="55">
         <v>44197</v>
       </c>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45" t="s">
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="84" t="s">
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45">
+      <c r="W9" s="38"/>
+      <c r="X9" s="38">
         <v>100</v>
       </c>
-      <c r="Y9" s="45">
+      <c r="Y9" s="38">
         <v>215</v>
       </c>
-      <c r="Z9" s="45">
+      <c r="Z9" s="38">
         <v>99.5</v>
       </c>
-      <c r="AA9" s="45" t="s">
+      <c r="AA9" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="AB9" s="93" t="s">
+      <c r="AB9" s="65" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" ht="18.75" spans="6:6">
-      <c r="F12" s="50"/>
-    </row>
-    <row r="13" ht="16.5" spans="6:6">
-      <c r="F13" s="51"/>
-    </row>
-    <row r="14" ht="19.5" spans="5:6">
+    <row r="12" spans="1:28" ht="18.75">
+      <c r="F12" s="43"/>
+    </row>
+    <row r="13" spans="1:28" ht="17.25">
+      <c r="F13" s="44"/>
+    </row>
+    <row r="14" spans="1:28" ht="20.25">
       <c r="E14"/>
-      <c r="F14" s="50" t="s">
+      <c r="F14" s="43" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" ht="19.5" spans="6:6">
-      <c r="F15" s="52" t="s">
+    <row r="15" spans="1:28" ht="20.25">
+      <c r="F15" s="45" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" ht="19.5" spans="6:10">
-      <c r="F16" s="52" t="s">
+    <row r="16" spans="1:28" ht="20.25">
+      <c r="F16" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="50"/>
-    </row>
-    <row r="17" ht="19.5" spans="6:10">
-      <c r="F17" s="50" t="s">
+      <c r="J16" s="43"/>
+    </row>
+    <row r="17" spans="6:10" ht="20.25">
+      <c r="F17" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="50"/>
-    </row>
-    <row r="18" ht="19.5" spans="6:10">
-      <c r="F18" s="50" t="s">
+      <c r="J17" s="43"/>
+    </row>
+    <row r="18" spans="6:10" ht="20.25">
+      <c r="F18" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-    </row>
-    <row r="19" ht="19.5" spans="6:10">
-      <c r="F19" s="50" t="s">
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+    </row>
+    <row r="19" spans="6:10" ht="20.25">
+      <c r="F19" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-    </row>
-    <row r="20" ht="19.5" spans="6:10">
-      <c r="F20" s="50" t="s">
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+    </row>
+    <row r="20" spans="6:10" ht="20.25">
+      <c r="F20" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-    </row>
-    <row r="21" ht="19.5" spans="6:10">
-      <c r="F21" s="50" t="s">
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+    </row>
+    <row r="21" spans="6:10" ht="20.25">
+      <c r="F21" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-    </row>
-    <row r="22" ht="19.5" spans="6:10">
-      <c r="F22" s="50" t="s">
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+    </row>
+    <row r="22" spans="6:10" ht="20.25">
+      <c r="F22" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-    </row>
-    <row r="23" ht="18.75" spans="6:10">
-      <c r="F23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-    </row>
-    <row r="24" ht="18.75" spans="6:10">
-      <c r="F24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-    </row>
-    <row r="25" ht="18.75" spans="6:10">
-      <c r="F25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-    </row>
-    <row r="26" ht="18.75" spans="6:10">
-      <c r="F26" s="53"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-    </row>
-    <row r="27" ht="18.75" spans="9:10">
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-    </row>
-    <row r="28" ht="18.75" spans="9:10">
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-    </row>
-    <row r="29" ht="18.75" spans="9:10">
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-    </row>
-    <row r="30" ht="18.75" spans="6:6">
-      <c r="F30" s="50"/>
-    </row>
-    <row r="32" ht="18.75" spans="6:6">
-      <c r="F32" s="50"/>
-    </row>
-    <row r="36" ht="19.5" spans="6:6">
-      <c r="F36" s="50" t="s">
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+    </row>
+    <row r="23" spans="6:10" ht="18.75">
+      <c r="F23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+    </row>
+    <row r="24" spans="6:10" ht="18.75">
+      <c r="F24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+    </row>
+    <row r="25" spans="6:10" ht="18.75">
+      <c r="F25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+    </row>
+    <row r="26" spans="6:10" ht="18.75">
+      <c r="F26" s="46"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+    </row>
+    <row r="27" spans="6:10" ht="18.75">
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+    </row>
+    <row r="28" spans="6:10" ht="18.75">
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+    </row>
+    <row r="29" spans="6:10" ht="18.75">
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+    </row>
+    <row r="30" spans="6:10" ht="18.75">
+      <c r="F30" s="43"/>
+    </row>
+    <row r="32" spans="6:10" ht="18.75">
+      <c r="F32" s="43"/>
+    </row>
+    <row r="36" spans="6:6" ht="20.25">
+      <c r="F36" s="43" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" ht="19.5" spans="6:6">
-      <c r="F37" s="52" t="s">
+    <row r="37" spans="6:6" ht="20.25">
+      <c r="F37" s="45" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" ht="19.5" spans="6:6">
-      <c r="F38" s="50" t="s">
+    <row r="38" spans="6:6" ht="20.25">
+      <c r="F38" s="43" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" ht="19.5" spans="6:6">
-      <c r="F39" s="50" t="s">
+    <row r="39" spans="6:6" ht="20.25">
+      <c r="F39" s="43" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" ht="19.5" spans="6:6">
-      <c r="F40" s="50" t="s">
+    <row r="40" spans="6:6" ht="20.25">
+      <c r="F40" s="43" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" ht="19.5" spans="6:6">
-      <c r="F41" s="50" t="s">
+    <row r="41" spans="6:6" ht="20.25">
+      <c r="F41" s="43" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" ht="19.5" spans="6:6">
-      <c r="F42" s="50" t="s">
+    <row r="42" spans="6:6" ht="20.25">
+      <c r="F42" s="43" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" ht="19.5" spans="6:6">
-      <c r="F43" s="50" t="s">
+    <row r="43" spans="6:6" ht="20.25">
+      <c r="F43" s="43" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A6:AB9">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A6:AB9"/>
   <sortState ref="A7:BM12">
     <sortCondition ref="A7:A12"/>
   </sortState>
   <mergeCells count="25">
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="X5:Z6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="X5:Z6"/>
   </mergeCells>
   <conditionalFormatting sqref="X7">
-    <cfRule type="expression" dxfId="0" priority="1021">
+    <cfRule type="expression" dxfId="29" priority="1021">
       <formula>AND(ROW(X7)=#REF!,COLUMN(X7)=#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1022">
+    <cfRule type="expression" dxfId="28" priority="1022">
       <formula>AND(ROW(X7)=#REF!,COLUMN(X7)=#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1023">
+    <cfRule type="expression" dxfId="27" priority="1023">
       <formula>AND(ROW(X7)=#REF!,COLUMN(X7)=#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1024">
+    <cfRule type="expression" dxfId="26" priority="1024">
       <formula>AND(ROW(X7)=#REF!,COLUMN(X7)=#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1025">
+    <cfRule type="expression" dxfId="25" priority="1025">
       <formula>AND(ROW(X7)=#REF!,COLUMN(X7)=#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1026">
+    <cfRule type="expression" dxfId="24" priority="1026">
       <formula>AND(ROW(X7)=#REF!,COLUMN(X7)=#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1027">
+    <cfRule type="expression" dxfId="23" priority="1027">
       <formula>AND(ROW(X7)=#REF!,COLUMN(X7)=#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1028">
+    <cfRule type="expression" dxfId="22" priority="1028">
       <formula>AND(ROW(X7)=#REF!,COLUMN(X7)=#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1029">
+    <cfRule type="expression" dxfId="21" priority="1029">
       <formula>AND(ROW(X7)=#REF!,COLUMN(X7)=#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1030">
+    <cfRule type="expression" dxfId="20" priority="1030">
       <formula>AND(ROW(X7)=#REF!,COLUMN(X7)=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X8">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="19" priority="1">
       <formula>AND(ROW(X8)=#REF!,COLUMN(X8)=#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>AND(ROW(X8)=#REF!,COLUMN(X8)=#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="17" priority="3">
       <formula>AND(ROW(X8)=#REF!,COLUMN(X8)=#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>AND(ROW(X8)=#REF!,COLUMN(X8)=#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="15" priority="5">
       <formula>AND(ROW(X8)=#REF!,COLUMN(X8)=#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="14" priority="6">
       <formula>AND(ROW(X8)=#REF!,COLUMN(X8)=#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="7">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>AND(ROW(X8)=#REF!,COLUMN(X8)=#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule type="expression" dxfId="12" priority="8">
       <formula>AND(ROW(X8)=#REF!,COLUMN(X8)=#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="9">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>AND(ROW(X8)=#REF!,COLUMN(X8)=#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="10">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>AND(ROW(X8)=#REF!,COLUMN(X8)=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X9">
-    <cfRule type="expression" dxfId="0" priority="11">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>AND(ROW(X9)=#REF!,COLUMN(X9)=#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="12">
+    <cfRule type="expression" dxfId="8" priority="12">
       <formula>AND(ROW(X9)=#REF!,COLUMN(X9)=#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="13">
+    <cfRule type="expression" dxfId="7" priority="13">
       <formula>AND(ROW(X9)=#REF!,COLUMN(X9)=#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="14">
+    <cfRule type="expression" dxfId="6" priority="14">
       <formula>AND(ROW(X9)=#REF!,COLUMN(X9)=#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="15">
+    <cfRule type="expression" dxfId="5" priority="15">
       <formula>AND(ROW(X9)=#REF!,COLUMN(X9)=#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="16">
+    <cfRule type="expression" dxfId="4" priority="16">
       <formula>AND(ROW(X9)=#REF!,COLUMN(X9)=#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="17">
+    <cfRule type="expression" dxfId="3" priority="17">
       <formula>AND(ROW(X9)=#REF!,COLUMN(X9)=#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="18">
+    <cfRule type="expression" dxfId="2" priority="18">
       <formula>AND(ROW(X9)=#REF!,COLUMN(X9)=#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="19">
+    <cfRule type="expression" dxfId="1" priority="19">
       <formula>AND(ROW(X9)=#REF!,COLUMN(X9)=#REF!)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="20">
       <formula>AND(ROW(X9)=#REF!,COLUMN(X9)=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.707638888888889" right="0.707638888888889" top="0.747916666666667" bottom="0.747916666666667" header="0.313888888888889" footer="0.313888888888889"/>
+  <pageMargins left="0.70763888888888904" right="0.70763888888888904" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
   <pageSetup paperSize="8" scale="21" orientation="landscape"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L4"/>
-  <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="3"/>
-  <cols>
-    <col min="3" max="3" width="102.5" customWidth="1"/>
-    <col min="6" max="6" width="102.5" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="102.5" customWidth="1"/>
-    <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="102.5" customWidth="1"/>
-    <col min="16" max="16" width="9" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="25.5" spans="1:12">
-      <c r="A1" s="2">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4" t="str">
-        <f>VLOOKUP(A1,Items!$B$7:$J$553,3,FALSE)</f>
-        <v>210395    00</v>
-      </c>
-      <c r="D1" s="5">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4" t="str">
-        <f>VLOOKUP(D1,Items!$B$7:$J$553,3,FALSE)</f>
-        <v>210407    00</v>
-      </c>
-      <c r="G1" s="2">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4" t="str">
-        <f>VLOOKUP(G1,Items!$B$7:$J$553,3,FALSE)</f>
-        <v>210419    00</v>
-      </c>
-      <c r="J1" s="2">
-        <v>4</v>
-      </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="4" t="e">
-        <f>VLOOKUP(J1,Items!$B$7:$J$553,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="25.5" spans="1:12">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="4" t="str">
-        <f>VLOOKUP(A1,Items!$B$7:$J$553,5,FALSE)</f>
-        <v>多啦a夢即棄式三層口罩 (S)</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="4" t="str">
-        <f>VLOOKUP(D1,Items!$B$7:$J$553,5,FALSE)</f>
-        <v>多啦a夢即棄式三層口罩 (M)</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="4" t="str">
-        <f>VLOOKUP(G1,Items!$B$7:$J$553,5,FALSE)</f>
-        <v>多啦a夢即棄式三層口罩 (L)</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="4" t="e">
-        <f>VLOOKUP(J1,Items!$B$7:$J$553,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="25.5" spans="1:12">
-      <c r="A3" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12">
-        <f>VLOOKUP(A1,Items!$B$7:$J$553,9,FALSE)</f>
-        <v>99.9</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12">
-        <f>VLOOKUP(D1,Items!$B$7:$J$553,9,FALSE)</f>
-        <v>99.9</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12">
-        <f>VLOOKUP(G1,Items!$B$7:$J$553,9,FALSE)</f>
-        <v>99.9</v>
-      </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="12" t="e">
-        <f>VLOOKUP(J1,Items!$B$7:$J$553,10,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="4" ht="408" customHeight="1" spans="1:12">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="17"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.707638888888889" right="0.707638888888889" top="0.747916666666667" bottom="0.747916666666667" header="0.313888888888889" footer="0.313888888888889"/>
-  <pageSetup paperSize="8" scale="10" orientation="landscape"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>